--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,28 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\bldgs\BFoCSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\bldgs\BFoCSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAE9D7-69A4-4C44-A864-E4F838162B62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="India Data" sheetId="6" r:id="rId2"/>
-    <sheet name="BFoCSbQL-residential" sheetId="3" r:id="rId3"/>
-    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId4"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="7" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="3" r:id="rId4"/>
+    <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>BFoCSbQL BAU Fraction of Components Sold by Quality Level</t>
   </si>
@@ -138,9 +148,6 @@
     <t>LED bulbs</t>
   </si>
   <si>
-    <t>Building component</t>
-  </si>
-  <si>
     <t>standard-compliant</t>
   </si>
   <si>
@@ -165,9 +172,6 @@
     <t>other</t>
   </si>
   <si>
-    <t>Most of these items are produced for use within India, not for export, so</t>
-  </si>
-  <si>
     <t>production trends and sales trends in appliances lead to essentially the same</t>
   </si>
   <si>
@@ -211,12 +215,33 @@
   </si>
   <si>
     <t>Cooling, Appliances</t>
+  </si>
+  <si>
+    <t>Dimensionless fraction of total components</t>
+  </si>
+  <si>
+    <t>This variable captures what BAU fraction of new building components qualify</t>
+  </si>
+  <si>
+    <t>for energy efficient rebates.</t>
+  </si>
+  <si>
+    <t>Most of these appliances are produced for use within India, not for export, so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the absolute quanitites would change in the rural-residential market, we </t>
+  </si>
+  <si>
+    <t>appliances would be the same as urban-residential.</t>
+  </si>
+  <si>
+    <t>assume that the proportion (%) of the rebate-qualifying and standard-compliant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -253,18 +278,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -293,7 +312,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -304,8 +323,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -318,17 +336,21 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,6 +495,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -508,6 +547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -683,10 +739,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -703,13 +761,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>62</v>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,13 +786,13 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>61</v>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +802,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,44 +821,72 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
+      <c r="A17" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>48</v>
+      <c r="A18" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -808,40 +894,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="8" width="12.5703125" style="8" customWidth="1"/>
+    <col min="3" max="8" width="12.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -850,22 +938,22 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -874,24 +962,24 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="11">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10">
         <v>380263</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>455207</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2144757</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>71880</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>866679</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>3918786</v>
       </c>
     </row>
@@ -902,22 +990,22 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1140585</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>729420</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>581579</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1733547</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>1158012</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>5343143</v>
       </c>
     </row>
@@ -928,22 +1016,22 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>656238</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>719155</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2317850</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>1093289</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>251736</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>5038268</v>
       </c>
     </row>
@@ -954,22 +1042,22 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>63923</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>12291</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>62206</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>4397</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>2405</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>145222</v>
       </c>
     </row>
@@ -980,22 +1068,22 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>69489</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>255163</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1009920</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>156963</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1591</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>1493126</v>
       </c>
     </row>
@@ -1006,22 +1094,22 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>3689</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>678</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>137009</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>396350</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>1861647</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>2399373</v>
       </c>
     </row>
@@ -1032,22 +1120,22 @@
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
         <v>66178149</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>506875</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>4835145</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>71520169</v>
       </c>
     </row>
@@ -1058,22 +1146,22 @@
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
         <v>17519180</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>17519180</v>
       </c>
     </row>
@@ -1084,22 +1172,22 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
         <v>1084189</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>66710</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>138509</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>1289408</v>
       </c>
     </row>
@@ -1108,12 +1196,12 @@
         <v>26</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1122,22 +1210,22 @@
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1148,22 +1236,22 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
         <v>800</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>2328172</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>2328972</v>
       </c>
     </row>
@@ -1174,22 +1262,22 @@
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>368</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>1134</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>8108</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>31668</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>41282</v>
       </c>
     </row>
@@ -1200,22 +1288,22 @@
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
         <v>2434</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>2605</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>5426</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>121669</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>132134</v>
       </c>
     </row>
@@ -1226,66 +1314,66 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>20</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>106</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>40401</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>36895</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>641494</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>718916</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="16">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14">
         <f>SUM(G5,G13)/SUM(H5,H13)</f>
         <v>0.1930012591696853</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>58</v>
+      <c r="D23" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="16">
+        <v>44</v>
+      </c>
+      <c r="C24" s="14">
         <f>SUM(G7,G9,G10)/SUM(H7,H9,H10)</f>
         <v>0.23681885329669894</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
@@ -1329,9 +1417,9 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="16">
+        <v>59</v>
+      </c>
+      <c r="C37" s="14">
         <f>C33/SUM(C30:C33)</f>
         <v>0.15956770502225048</v>
       </c>
@@ -1347,13 +1435,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A10F90-3053-48D7-A1A3-C92F003B3D7C}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1362,20 +1452,20 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5">
         <f>1-C2</f>
@@ -1387,7 +1477,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B7" si="0">1-C3</f>
@@ -1400,19 +1490,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -1425,7 +1515,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -1438,7 +1528,117 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5">
+        <f>1-C2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.80699874083031475</v>
+      </c>
+      <c r="C3" s="5">
+        <f>'India Data'!C23</f>
+        <v>0.1930012591696853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84043229497774952</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'India Data'!C37</f>
+        <v>0.15956770502225048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76318114670330106</v>
+      </c>
+      <c r="C6" s="5">
+        <f>'India Data'!C24</f>
+        <v>0.23681885329669894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -1457,14 +1657,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1473,20 +1675,20 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5">
         <f>1-C2</f>
@@ -1498,7 +1700,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B7" si="0">1-C3</f>
@@ -1511,19 +1713,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -1536,7 +1738,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -1549,7 +1751,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
